--- a/data/trans_orig/P36$cafe-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D205BB77-208F-406C-AD00-C935A4043125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231AE6BB-4FF8-49DA-867C-C23FA01888EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E227CE9-DD4B-43F2-B125-DDA65A09A9EC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80ADC180-D208-4ED4-B1A8-BF1153CF783F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1054">
-  <si>
-    <t>Población según alimentos que desayuna habitualmente en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1076">
+  <si>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -1345,10 +1345,136 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según alimentos que desayuna habitualmente en 2012</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>87,86%</t>
@@ -1411,9 +1537,6 @@
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
     <t>10,47%</t>
   </si>
   <si>
@@ -1576,1233 +1699,1197 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>14,24%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Población según alimentos que desayuna habitualmente en 2016</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
     <t>85,67%</t>
   </si>
   <si>
@@ -2881,9 +2968,6 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
     <t>5,51%</t>
   </si>
   <si>
@@ -2911,9 +2995,6 @@
     <t>95,8%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
     <t>94,44%</t>
   </si>
   <si>
@@ -2983,9 +3064,6 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
     <t>12,16%</t>
   </si>
   <si>
@@ -3049,9 +3127,6 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
     <t>91,69%</t>
   </si>
   <si>
@@ -3094,12 +3169,6 @@
     <t>10,01%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
@@ -3188,9 +3257,6 @@
   </si>
   <si>
     <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
   </si>
   <si>
     <t>3,59%</t>
@@ -3611,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243098E8-AA62-4299-85BC-E54B0E2AEAB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D2F713-5B9C-4AD4-B0C6-915A6E1F9513}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5517,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111DD5E6-0354-4AA7-9110-1A88DE08A536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D218C890-613F-440B-9E2E-1319886ABAD4}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5608,28 +5674,28 @@
         <v>436</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5638,31 +5704,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5671,31 +5737,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5704,31 +5770,31 @@
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>436</v>
+        <v>204</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>436</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5737,31 +5803,31 @@
         <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>436</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5770,31 +5836,31 @@
         <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>436</v>
+        <v>154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>436</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>436</v>
+        <v>191</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5805,31 +5871,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5838,31 +5904,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5877,25 +5943,25 @@
         <v>368</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5904,7 +5970,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>429</v>
@@ -5919,16 +5985,16 @@
         <v>63</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5943,10 +6009,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>42</v>
@@ -5958,10 +6024,10 @@
         <v>41</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5976,7 +6042,7 @@
         <v>425</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>334</v>
@@ -6005,31 +6071,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6038,31 +6104,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6071,31 +6137,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6104,13 +6170,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>430</v>
@@ -6119,16 +6185,16 @@
         <v>148</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6143,13 +6209,13 @@
         <v>162</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>202</v>
@@ -6158,10 +6224,10 @@
         <v>98</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6173,13 +6239,13 @@
         <v>157</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>162</v>
@@ -6188,10 +6254,10 @@
         <v>274</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>251</v>
@@ -6205,31 +6271,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6238,31 +6304,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6271,31 +6337,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6304,31 +6370,31 @@
         <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>240</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>298</v>
+        <v>582</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>542</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>232</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6337,31 +6403,31 @@
         <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>546</v>
+        <v>109</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>385</v>
+        <v>505</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6370,31 +6436,31 @@
         <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>544</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>337</v>
+        <v>589</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>206</v>
+        <v>463</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6405,31 +6471,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>345</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6438,31 +6504,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6471,31 +6537,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>234</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6504,28 +6570,28 @@
         <v>37</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>375</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>137</v>
@@ -6546,16 +6612,16 @@
         <v>240</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>42</v>
@@ -6570,13 +6636,13 @@
         <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>425</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>150</v>
@@ -6585,16 +6651,16 @@
         <v>44</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>252</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6605,31 +6671,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6638,31 +6704,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>602</v>
+        <v>447</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6671,31 +6737,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6704,16 +6770,16 @@
         <v>37</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>530</v>
+        <v>652</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>39</v>
@@ -6722,13 +6788,13 @@
         <v>191</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6737,13 +6803,13 @@
         <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>48</v>
@@ -6752,16 +6818,16 @@
         <v>296</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>296</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6776,16 +6842,16 @@
         <v>38</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>625</v>
+        <v>465</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>245</v>
@@ -6794,7 +6860,7 @@
         <v>196</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>626</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6805,31 +6871,31 @@
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>630</v>
+        <v>436</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6838,31 +6904,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6871,31 +6937,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6904,31 +6970,31 @@
         <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>329</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>149</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6940,25 +7006,25 @@
         <v>60</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>419</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>624</v>
+        <v>661</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>114</v>
@@ -6973,10 +7039,10 @@
         <v>197</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>426</v>
@@ -6985,7 +7051,7 @@
         <v>425</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>137</v>
@@ -6994,7 +7060,7 @@
         <v>154</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -7005,31 +7071,31 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="J46" s="7" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -7038,31 +7104,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -7071,31 +7137,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>683</v>
+        <v>574</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -7107,19 +7173,19 @@
         <v>99</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>294</v>
@@ -7128,7 +7194,7 @@
         <v>94</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -7137,7 +7203,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>42</v>
@@ -7146,22 +7212,22 @@
         <v>155</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>695</v>
+        <v>461</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>696</v>
+        <v>581</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>699</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -7170,13 +7236,13 @@
         <v>56</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>44</v>
@@ -7185,16 +7251,16 @@
         <v>41</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>250</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -7208,28 +7274,28 @@
         <v>390</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -7241,28 +7307,28 @@
         <v>353</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -7271,31 +7337,31 @@
         <v>28</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>687</v>
-      </c>
       <c r="I54" s="7" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -7304,10 +7370,10 @@
         <v>37</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>49</v>
@@ -7322,13 +7388,13 @@
         <v>198</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -7337,31 +7403,31 @@
         <v>46</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>275</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>734</v>
+        <v>463</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>378</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>735</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -7382,10 +7448,10 @@
         <v>429</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>53</v>
@@ -7394,7 +7460,7 @@
         <v>290</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>738</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -7423,7 +7489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2685C6B1-DBD5-4E85-9D08-79D05B782609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C50CAD4-10D4-4A6B-98A4-32F6B4E7C78A}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7440,7 +7506,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7511,31 +7577,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7544,31 +7610,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7577,31 +7643,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7610,10 +7676,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>331</v>
@@ -7622,19 +7688,19 @@
         <v>429</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7643,7 +7709,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>378</v>
@@ -7664,10 +7730,10 @@
         <v>105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7685,22 +7751,22 @@
         <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>735</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>289</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>429</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7714,28 +7780,28 @@
         <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7744,31 +7810,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7777,31 +7843,31 @@
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>795</v>
+        <v>822</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>532</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7810,7 +7876,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>42</v>
@@ -7825,16 +7891,16 @@
         <v>239</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>798</v>
+        <v>826</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7846,28 +7912,28 @@
         <v>380</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>803</v>
+        <v>466</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7876,7 +7942,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>250</v>
@@ -7885,22 +7951,22 @@
         <v>421</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>547</v>
+        <v>834</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>289</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -7911,31 +7977,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7944,31 +8010,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -7977,31 +8043,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -8010,31 +8076,31 @@
         <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -8049,25 +8115,25 @@
         <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -8082,22 +8148,22 @@
         <v>153</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>50</v>
@@ -8111,31 +8177,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -8144,28 +8210,28 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>853</v>
+        <v>881</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>348</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>855</v>
+        <v>883</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
@@ -8177,31 +8243,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>856</v>
+        <v>884</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>859</v>
+        <v>887</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>863</v>
+        <v>891</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -8210,31 +8276,31 @@
         <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8243,31 +8309,31 @@
         <v>46</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8276,31 +8342,31 @@
         <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>206</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8311,31 +8377,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8344,31 +8410,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8377,31 +8443,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>863</v>
+        <v>891</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8410,13 +8476,13 @@
         <v>37</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>285</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>283</v>
@@ -8425,16 +8491,16 @@
         <v>206</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>915</v>
+        <v>943</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8458,7 +8524,7 @@
         <v>239</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>42</v>
@@ -8467,7 +8533,7 @@
         <v>239</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8476,13 +8542,13 @@
         <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>41</v>
@@ -8491,16 +8557,16 @@
         <v>42</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>542</v>
+        <v>949</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8511,31 +8577,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8544,31 +8610,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8577,31 +8643,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8616,16 +8682,16 @@
         <v>158</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>341</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>209</v>
@@ -8634,7 +8700,7 @@
         <v>380</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8643,28 +8709,28 @@
         <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>947</v>
+        <v>470</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>201</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>949</v>
+        <v>977</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>289</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>232</v>
@@ -8676,31 +8742,31 @@
         <v>56</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>339</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8711,28 +8777,28 @@
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>957</v>
+        <v>556</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>302</v>
@@ -8744,31 +8810,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>962</v>
+        <v>989</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>356</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>963</v>
+        <v>990</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>964</v>
+        <v>991</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>966</v>
+        <v>993</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8777,31 +8843,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>968</v>
+        <v>995</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>969</v>
+        <v>996</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>970</v>
+        <v>997</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>971</v>
+        <v>998</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>972</v>
+        <v>999</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>973</v>
+        <v>1000</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>975</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -8810,31 +8876,31 @@
         <v>37</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>976</v>
+        <v>1003</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>282</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>977</v>
+        <v>1004</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>978</v>
+        <v>1005</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>411</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>981</v>
+        <v>580</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -8843,31 +8909,31 @@
         <v>46</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>983</v>
+        <v>1009</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>985</v>
+        <v>1011</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>986</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -8879,28 +8945,28 @@
         <v>429</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>987</v>
+        <v>1013</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>988</v>
+        <v>1014</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>112</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>989</v>
+        <v>1015</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -8911,31 +8977,31 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>991</v>
+        <v>1017</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>993</v>
+        <v>1019</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>995</v>
+        <v>1021</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>997</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -8944,31 +9010,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>301</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1001</v>
+        <v>1027</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>1002</v>
+        <v>1028</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>1003</v>
+        <v>566</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -8977,31 +9043,31 @@
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1006</v>
+        <v>1031</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1007</v>
+        <v>1032</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>1010</v>
+        <v>1035</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>185</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>1011</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -9010,31 +9076,31 @@
         <v>37</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>365</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1014</v>
+        <v>1039</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>1016</v>
+        <v>1041</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1017</v>
+        <v>1042</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -9043,19 +9109,19 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>1018</v>
+        <v>586</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>99</v>
@@ -9064,10 +9130,10 @@
         <v>51</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1019</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -9079,25 +9145,25 @@
         <v>332</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>699</v>
+        <v>464</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1020</v>
+        <v>1043</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>335</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>432</v>
@@ -9111,31 +9177,31 @@
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1023</v>
+        <v>1046</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>1026</v>
+        <v>1049</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1027</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -9144,31 +9210,31 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>1028</v>
+        <v>1051</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1029</v>
+        <v>1052</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1030</v>
+        <v>1053</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>1031</v>
+        <v>1054</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>1033</v>
+        <v>1056</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1034</v>
+        <v>1057</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -9177,25 +9243,25 @@
         <v>28</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1035</v>
+        <v>1058</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1036</v>
+        <v>1059</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1037</v>
+        <v>1060</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1038</v>
+        <v>1061</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1039</v>
+        <v>1062</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>319</v>
@@ -9210,31 +9276,31 @@
         <v>37</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1042</v>
+        <v>1065</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>1043</v>
+        <v>1066</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1044</v>
+        <v>1067</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1045</v>
+        <v>1068</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1047</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -9243,31 +9309,31 @@
         <v>46</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1048</v>
+        <v>1071</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>1049</v>
+        <v>1072</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>1050</v>
+        <v>588</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -9276,7 +9342,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>542</v>
+        <v>949</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>201</v>
@@ -9288,7 +9354,7 @@
         <v>163</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>1052</v>
+        <v>1074</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>151</v>
@@ -9297,10 +9363,10 @@
         <v>112</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>1053</v>
+        <v>1075</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
